--- a/template/excel/模型加工表级依赖模板.xlsx
+++ b/template/excel/模型加工表级依赖模板.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>表英文名</t>
   </si>
@@ -41,6 +41,9 @@
     <t>依赖表</t>
   </si>
   <si>
+    <t>依赖表类型</t>
+  </si>
+  <si>
     <t>{.tableNameEn}</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>{.relatedTableName}</t>
+  </si>
+  <si>
+    <t>{.relatedTableType}</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1318,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1320,12 +1326,13 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23636363636364" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23636363636364" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="55.6363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.8181818181818" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1335,16 +1342,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
